--- a/config_11.24/shoping_config_xiaomi.xlsx
+++ b/config_11.24/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1793">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4047,10 +4047,6 @@
     <t>VIP4礼包</t>
   </si>
   <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP5礼包</t>
   </si>
   <si>
@@ -4072,81 +4068,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -7962,6 +7884,126 @@
   </si>
   <si>
     <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8162,7 +8204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8359,6 +8401,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8758,16 +8803,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8866,7 +8911,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8917,7 +8962,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8981,7 +9026,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -9011,14 +9056,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9027,7 +9072,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9063,7 +9108,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -9093,14 +9138,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9145,7 +9190,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -9175,14 +9220,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9227,7 +9272,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -9257,14 +9302,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U5" s="33" t="s">
         <v>1091</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>1112</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9309,7 +9354,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -9339,14 +9384,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9391,7 +9436,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -9421,14 +9466,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9473,7 +9518,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -9503,14 +9548,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9555,7 +9600,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9585,13 +9630,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9636,7 +9681,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9666,13 +9711,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9719,7 +9764,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9800,7 +9845,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9881,7 +9926,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9962,7 +10007,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -10043,7 +10088,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -10124,7 +10169,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10154,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10198,7 +10243,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10228,10 +10273,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10272,7 +10317,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10302,10 +10347,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10346,7 +10391,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10376,10 +10421,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10420,7 +10465,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10450,10 +10495,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10494,7 +10539,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10524,10 +10569,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10568,7 +10613,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10598,10 +10643,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10642,7 +10687,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10672,10 +10717,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10714,25 +10759,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10753,16 +10798,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10814,10 +10859,10 @@
   <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z391" sqref="Z391"/>
+      <selection pane="bottomRight" activeCell="A328" sqref="A328:XFD337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10879,10 +10924,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -11212,7 +11257,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14548,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -14631,7 +14676,7 @@
         <v>78</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>526</v>
@@ -14687,7 +14732,7 @@
         <v>78</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1531</v>
+        <v>1510</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>526</v>
@@ -14743,7 +14788,7 @@
         <v>78</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1489</v>
+        <v>1468</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>526</v>
@@ -14799,7 +14844,7 @@
         <v>78</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>526</v>
@@ -14855,7 +14900,7 @@
         <v>78</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1491</v>
+        <v>1470</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>526</v>
@@ -15188,7 +15233,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -15206,10 +15251,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -15244,7 +15289,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15262,10 +15307,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -15283,10 +15328,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -15306,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -15460,10 +15505,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -15478,10 +15523,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -15690,10 +15735,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15796,10 +15841,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -18222,7 +18267,7 @@
         <v>78</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>1493</v>
+        <v>1472</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>526</v>
@@ -18257,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1224</v>
+        <v>1203</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -18278,7 +18323,7 @@
         <v>78</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>1492</v>
+        <v>1471</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>526</v>
@@ -18862,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18922,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -20680,7 +20725,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20698,10 +20743,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20742,10 +20787,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20763,10 +20808,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20807,7 +20852,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20825,10 +20870,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20866,10 +20911,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>983</v>
@@ -20934,10 +20979,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>984</v>
@@ -21002,10 +21047,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>985</v>
@@ -21070,10 +21115,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="H174" s="19" t="s">
-        <v>1250</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>986</v>
@@ -21138,10 +21183,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>997</v>
@@ -21206,10 +21251,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>998</v>
@@ -21274,10 +21319,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>999</v>
@@ -21342,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
@@ -21410,10 +21455,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1001</v>
@@ -21478,10 +21523,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>991</v>
@@ -21546,10 +21591,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1002</v>
@@ -21614,10 +21659,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1003</v>
@@ -21682,10 +21727,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1004</v>
@@ -21750,10 +21795,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1003</v>
@@ -21818,10 +21863,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1005</v>
@@ -26130,7 +26175,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -26301,7 +26346,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -26496,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -27019,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -27279,7 +27324,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -27563,7 +27608,7 @@
         <v>78</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>1494</v>
+        <v>1473</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>526</v>
@@ -27801,7 +27846,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27866,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27931,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27996,7 +28041,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -30485,10 +30530,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30541,7 +30586,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -30603,7 +30648,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -30834,7 +30879,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -30914,7 +30959,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>1011</v>
@@ -30935,7 +30980,7 @@
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30973,10 +31018,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="I327" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K327" s="43">
         <v>-31</v>
@@ -30997,7 +31042,7 @@
         <v>1018</v>
       </c>
       <c r="Q327" s="43" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1019</v>
@@ -31038,11 +31083,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1023</v>
+        <v>1766</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1031</v>
+        <v>1767</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31055,23 +31100,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1042</v>
+        <v>1769</v>
+      </c>
+      <c r="Q328" s="66" t="s">
+        <v>1030</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31124,7 +31169,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1032</v>
+        <v>1771</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31137,23 +31182,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q329" s="43" t="s">
-        <v>1043</v>
+        <v>1772</v>
+      </c>
+      <c r="Q329" s="66" t="s">
+        <v>1773</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31206,7 +31251,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1033</v>
+        <v>1774</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31219,23 +31264,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q330" s="43" t="s">
-        <v>1049</v>
+        <v>1775</v>
+      </c>
+      <c r="Q330" s="66" t="s">
+        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31288,7 +31333,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1034</v>
+        <v>1777</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31301,23 +31346,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q331" s="43" t="s">
-        <v>1050</v>
+        <v>1775</v>
+      </c>
+      <c r="Q331" s="66" t="s">
+        <v>1778</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31366,11 +31411,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="43" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1035</v>
+        <v>1779</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31383,23 +31428,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1009</v>
+        <v>482</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q332" s="43" t="s">
-        <v>1044</v>
+        <v>1775</v>
+      </c>
+      <c r="Q332" s="66" t="s">
+        <v>1780</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31448,11 +31493,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="43" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1036</v>
+        <v>1765</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31465,23 +31510,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q333" s="43" t="s">
-        <v>1045</v>
+        <v>1775</v>
+      </c>
+      <c r="Q333" s="66" t="s">
+        <v>1781</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31530,11 +31575,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1037</v>
+        <v>1782</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31547,23 +31592,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1009</v>
+        <v>1783</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q334" s="43" t="s">
-        <v>1051</v>
+        <v>1775</v>
+      </c>
+      <c r="Q334" s="66" t="s">
+        <v>1784</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1052</v>
+        <v>1785</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31612,11 +31657,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1038</v>
+        <v>1786</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31629,23 +31674,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1009</v>
+        <v>1764</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q335" s="43" t="s">
-        <v>1046</v>
+        <v>1775</v>
+      </c>
+      <c r="Q335" s="66" t="s">
+        <v>1787</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31694,11 +31739,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1039</v>
+        <v>1788</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31711,23 +31756,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q336" s="43" t="s">
-        <v>1047</v>
+        <v>1775</v>
+      </c>
+      <c r="Q336" s="66" t="s">
+        <v>1789</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1052</v>
+        <v>1790</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31776,11 +31821,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1040</v>
+        <v>1791</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31793,23 +31838,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q337" s="43" t="s">
-        <v>1048</v>
+        <v>1763</v>
+      </c>
+      <c r="Q337" s="66" t="s">
+        <v>1792</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1052</v>
+        <v>1785</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31855,10 +31900,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31876,10 +31921,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31894,10 +31939,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31930,7 +31975,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31949,10 +31994,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31972,10 +32017,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -32010,11 +32055,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -32033,10 +32078,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -32056,10 +32101,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -32091,11 +32136,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -32107,19 +32152,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -32134,10 +32179,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -32163,10 +32208,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -32178,19 +32223,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -32205,10 +32250,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -32234,10 +32279,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32249,19 +32294,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32276,10 +32321,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32305,10 +32350,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32320,19 +32365,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32347,10 +32392,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32376,10 +32421,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32391,19 +32436,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32418,10 +32463,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32447,10 +32492,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32462,19 +32507,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32489,10 +32534,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32518,10 +32563,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32533,19 +32578,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32560,10 +32605,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32589,10 +32634,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32604,19 +32649,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32631,10 +32676,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AB348" s="5" t="s">
         <v>1267</v>
-      </c>
-      <c r="AB348" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32660,10 +32705,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32681,13 +32726,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32702,10 +32747,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32731,10 +32776,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32755,10 +32800,10 @@
         <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32776,7 +32821,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32802,10 +32847,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32817,7 +32862,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -32826,10 +32871,10 @@
         <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32847,7 +32892,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32873,10 +32918,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32897,7 +32942,7 @@
         <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32915,10 +32960,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32944,13 +32989,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32968,13 +33013,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -33012,13 +33057,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -33030,19 +33075,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -33080,13 +33125,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -33098,16 +33143,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -33148,13 +33193,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -33172,13 +33217,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -33216,13 +33261,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33234,19 +33279,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33284,13 +33329,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33302,13 +33347,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -33352,13 +33397,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33370,19 +33415,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33420,13 +33465,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33438,19 +33483,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33488,13 +33533,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33506,19 +33551,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33556,13 +33601,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33580,10 +33625,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -33601,10 +33646,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33630,13 +33675,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33648,19 +33693,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33675,10 +33720,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33704,13 +33749,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33722,19 +33767,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33749,10 +33794,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33778,10 +33823,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33793,16 +33838,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33843,10 +33888,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33858,16 +33903,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33908,10 +33953,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33923,19 +33968,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33973,10 +34018,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33988,16 +34033,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -34038,10 +34083,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -34059,13 +34104,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -34103,10 +34148,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -34124,7 +34169,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -34165,10 +34210,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -34186,10 +34231,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -34227,10 +34272,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34248,7 +34293,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -34289,10 +34334,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34310,13 +34355,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -34351,13 +34396,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -34369,7 +34414,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -34378,7 +34423,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -34419,13 +34464,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34437,19 +34482,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -34487,13 +34532,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34505,19 +34550,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34555,10 +34600,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1014</v>
@@ -34573,19 +34618,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34623,13 +34668,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34647,13 +34692,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34691,10 +34736,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34709,19 +34754,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34759,10 +34804,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34777,19 +34822,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34827,13 +34872,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34851,10 +34896,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34895,13 +34940,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34919,13 +34964,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34963,13 +35008,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34987,10 +35032,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -35031,13 +35076,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -35049,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -35099,13 +35144,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -35117,19 +35162,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -35167,13 +35212,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -35191,10 +35236,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="Q386" s="39" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="V386" s="19" t="s">
         <v>536</v>
@@ -35235,13 +35280,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -35253,16 +35298,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="Q387" s="39" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="V387" s="19" t="s">
         <v>536</v>
@@ -35303,13 +35348,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -35321,19 +35366,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="Q388" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -35371,13 +35416,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -35389,16 +35434,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="Q389" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V389" s="19" t="s">
         <v>536</v>
@@ -35439,13 +35484,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35463,10 +35508,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="Q390" s="39" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="V390" s="19" t="s">
         <v>536</v>
@@ -35507,13 +35552,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35531,10 +35576,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="Q391" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V391" s="19" t="s">
         <v>536</v>
@@ -35575,13 +35620,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35599,10 +35644,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="Q392" s="39" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="V392" s="19" t="s">
         <v>536</v>
@@ -35643,13 +35688,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35667,10 +35712,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="Q393" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V393" s="19" t="s">
         <v>536</v>
@@ -35711,13 +35756,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35729,16 +35774,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="Q394" s="39" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="V394" s="19" t="s">
         <v>536</v>
@@ -35779,10 +35824,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35794,16 +35839,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35841,10 +35886,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35856,16 +35901,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35906,7 +35951,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35924,10 +35969,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35968,7 +36013,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35986,10 +36031,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -36027,10 +36072,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -36042,16 +36087,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -36089,10 +36134,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -36104,16 +36149,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -36151,10 +36196,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -36172,13 +36217,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -36216,10 +36261,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -36231,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36281,10 +36326,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36302,13 +36347,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36346,10 +36391,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36367,13 +36412,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36411,10 +36456,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36432,13 +36477,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36476,10 +36521,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36497,13 +36542,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36541,10 +36586,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36556,19 +36601,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36606,10 +36651,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="I408" s="49" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="K408" s="49">
         <v>-31</v>
@@ -36627,10 +36672,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q408" s="50" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="V408" s="49" t="s">
         <v>568</v>
@@ -36671,10 +36716,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
       <c r="I409" s="49" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K409" s="49">
         <v>-31</v>
@@ -36686,19 +36731,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O409" s="49">
         <v>2000</v>
       </c>
       <c r="P409" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q409" s="50" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="V409" s="49" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="W409" s="49">
         <v>99999999</v>
@@ -36736,10 +36781,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="I410" s="49" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="K410" s="49">
         <v>-31</v>
@@ -36757,10 +36802,10 @@
         <v>4800</v>
       </c>
       <c r="P410" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q410" s="50" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="49" t="s">
         <v>568</v>
@@ -36801,10 +36846,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="I411" s="49" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="K411" s="49">
         <v>-31</v>
@@ -36822,10 +36867,10 @@
         <v>9800</v>
       </c>
       <c r="P411" s="49" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="Q411" s="50" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="V411" s="49" t="s">
         <v>568</v>
@@ -36866,10 +36911,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="I412" s="49" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="K412" s="49">
         <v>-31</v>
@@ -36887,13 +36932,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q412" s="50" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="V412" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W412" s="49">
         <v>99999999</v>
@@ -36931,10 +36976,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="I413" s="49" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="K413" s="49">
         <v>-31</v>
@@ -36946,19 +36991,19 @@
         <v>0</v>
       </c>
       <c r="N413" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O413" s="49">
         <v>49800</v>
       </c>
       <c r="P413" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q413" s="50" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="V413" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W413" s="49">
         <v>99999999</v>
@@ -36999,7 +37044,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -37020,7 +37065,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -37052,13 +37097,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -37076,13 +37121,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="Q415" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>109</v>
@@ -37120,13 +37165,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -37144,13 +37189,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q416" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -37188,13 +37233,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -37212,13 +37257,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q417" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -37256,13 +37301,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37280,13 +37325,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q418" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -37324,13 +37369,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37348,13 +37393,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q419" s="52" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -37392,13 +37437,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37416,13 +37461,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q420" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -37460,10 +37505,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37475,19 +37520,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37499,10 +37544,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37528,13 +37573,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="H422" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I422" s="53" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="K422" s="53">
         <v>-31</v>
@@ -37552,10 +37597,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="53" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="Q422" s="54" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="V422" s="53" t="s">
         <v>570</v>
@@ -37596,13 +37641,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="H423" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I423" s="53" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="K423" s="53">
         <v>-31</v>
@@ -37620,13 +37665,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="53" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="Q423" s="54" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="V423" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W423" s="53">
         <v>99999999</v>
@@ -37664,13 +37709,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="H424" s="53" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="I424" s="53" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="K424" s="53">
         <v>-31</v>
@@ -37688,13 +37733,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="53" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="Q424" s="54" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="V424" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W424" s="53">
         <v>99999999</v>
@@ -37732,10 +37777,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37753,13 +37798,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="Q425" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37788,10 +37833,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37809,13 +37854,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="Q426" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37844,10 +37889,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37865,13 +37910,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="Q427" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37900,10 +37945,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37921,13 +37966,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37956,10 +38001,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37977,13 +38022,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="Q429" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -38012,13 +38057,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -38036,7 +38081,7 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q430" s="39" t="s">
         <v>722</v>
@@ -38080,13 +38125,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -38104,10 +38149,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -38148,13 +38193,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -38172,10 +38217,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -38216,13 +38261,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38240,10 +38285,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>529</v>
@@ -38284,13 +38329,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="H434" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I434" s="55" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="K434" s="55">
         <v>-31</v>
@@ -38308,10 +38353,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q434" s="56" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="V434" s="55" t="s">
         <v>529</v>
@@ -38349,13 +38394,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="H435" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I435" s="55" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="K435" s="55">
         <v>-31</v>
@@ -38373,10 +38418,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q435" s="56" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="V435" s="55" t="s">
         <v>529</v>
@@ -38414,13 +38459,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="H436" s="55" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="I436" s="55" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="K436" s="55">
         <v>-31</v>
@@ -38438,10 +38483,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="55" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="Q436" s="56" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="V436" s="55" t="s">
         <v>529</v>
@@ -38479,13 +38524,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="H437" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I437" s="55" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="K437" s="55">
         <v>-31</v>
@@ -38503,10 +38548,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q437" s="56" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="V437" s="55" t="s">
         <v>529</v>
@@ -38544,13 +38589,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="H438" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I438" s="55" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="K438" s="55">
         <v>-31</v>
@@ -38568,10 +38613,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q438" s="56" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="V438" s="55" t="s">
         <v>529</v>
@@ -38609,13 +38654,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="H439" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I439" s="55" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="K439" s="55">
         <v>-31</v>
@@ -38633,10 +38678,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q439" s="56" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="V439" s="55" t="s">
         <v>529</v>
@@ -38674,13 +38719,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="H440" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I440" s="55" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="K440" s="55">
         <v>-31</v>
@@ -38698,10 +38743,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q440" s="56" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="V440" s="55" t="s">
         <v>529</v>
@@ -38739,10 +38784,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="I441" s="53" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="K441" s="53">
         <v>-31</v>
@@ -38760,13 +38805,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q441" s="54" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="V441" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W441" s="53">
         <v>9999999</v>
@@ -38801,10 +38846,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="I442" s="53" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="K442" s="53">
         <v>-31</v>
@@ -38822,13 +38867,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q442" s="54" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
       <c r="V442" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W442" s="53">
         <v>9999999</v>
@@ -38863,10 +38908,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="I443" s="53" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="K443" s="53">
         <v>-31</v>
@@ -38884,13 +38929,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q443" s="54" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="V443" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W443" s="53">
         <v>9999999</v>
@@ -38925,10 +38970,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="I444" s="53" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="K444" s="53">
         <v>-31</v>
@@ -38946,13 +38991,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q444" s="54" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="V444" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W444" s="53">
         <v>9999999</v>
@@ -38987,10 +39032,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="I445" s="53" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="K445" s="53">
         <v>-31</v>
@@ -39008,13 +39053,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q445" s="54" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="V445" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W445" s="53">
         <v>9999999</v>
@@ -39049,10 +39094,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="I446" s="53" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="K446" s="53">
         <v>-31</v>
@@ -39070,13 +39115,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q446" s="54" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="V446" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W446" s="53">
         <v>9999999</v>
@@ -39111,13 +39156,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="H447" s="59" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="K447" s="59">
         <v>-31</v>
@@ -39135,13 +39180,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q447" s="60" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="V447" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W447" s="59">
         <v>9999999</v>
@@ -39179,13 +39224,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="H448" s="59" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="K448" s="59">
         <v>-31</v>
@@ -39203,13 +39248,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q448" s="60" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="V448" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W448" s="59">
         <v>9999999</v>
@@ -39244,13 +39289,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="H449" s="59" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="K449" s="59">
         <v>-31</v>
@@ -39268,10 +39313,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q449" s="60" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>529</v>
@@ -39312,13 +39357,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="K450" s="61">
         <v>-31</v>
@@ -39336,10 +39381,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q450" s="62" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>529</v>
@@ -39380,13 +39425,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="H451" s="61" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="K451" s="61">
         <v>-31</v>
@@ -39404,10 +39449,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q451" s="62" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>529</v>
@@ -39445,13 +39490,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="H452" s="61" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="K452" s="61">
         <v>-31</v>
@@ -39469,10 +39514,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q452" s="62" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>529</v>
@@ -39513,13 +39558,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H453" s="59" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="K453" s="59">
         <v>-31</v>
@@ -39537,10 +39582,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q453" s="60" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>529</v>
@@ -39581,13 +39626,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="H454" s="59" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="K454" s="59">
         <v>-31</v>
@@ -39605,10 +39650,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q454" s="60" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>529</v>
@@ -39646,13 +39691,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="H455" s="59" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="K455" s="59">
         <v>-31</v>
@@ -39670,10 +39715,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39714,13 +39759,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="H456" s="61" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39738,10 +39783,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39782,13 +39827,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="H457" s="61" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39806,10 +39851,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39847,13 +39892,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="H458" s="61" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -39871,10 +39916,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39915,13 +39960,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="H459" s="59" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -39939,10 +39984,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39983,13 +40028,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="H460" s="59" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40007,10 +40052,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40048,13 +40093,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="H461" s="59" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40072,10 +40117,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40116,13 +40161,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="H462" s="61" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40140,10 +40185,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40184,13 +40229,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1736</v>
+        <v>1715</v>
       </c>
       <c r="H463" s="61" t="s">
-        <v>1737</v>
+        <v>1716</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1738</v>
+        <v>1717</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40208,10 +40253,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40249,13 +40294,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="H464" s="61" t="s">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40273,10 +40318,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="61" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40317,13 +40362,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="H465" s="59" t="s">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40341,10 +40386,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1747</v>
+        <v>1726</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40385,13 +40430,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1748</v>
+        <v>1727</v>
       </c>
       <c r="H466" s="59" t="s">
-        <v>1749</v>
+        <v>1728</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1750</v>
+        <v>1729</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40409,10 +40454,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1751</v>
+        <v>1730</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40450,13 +40495,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1752</v>
+        <v>1731</v>
       </c>
       <c r="H467" s="59" t="s">
-        <v>1753</v>
+        <v>1732</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1754</v>
+        <v>1733</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40474,10 +40519,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1755</v>
+        <v>1734</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40518,13 +40563,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="H468" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1759</v>
+        <v>1738</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40542,13 +40587,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q468" s="64" t="s">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="V468" s="63" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40583,13 +40628,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="H469" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1763</v>
+        <v>1742</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40607,13 +40652,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1764</v>
+        <v>1743</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40648,13 +40693,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1765</v>
+        <v>1744</v>
       </c>
       <c r="H470" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1766</v>
+        <v>1745</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40672,13 +40717,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1767</v>
+        <v>1746</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40713,13 +40758,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1768</v>
+        <v>1747</v>
       </c>
       <c r="H471" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40737,13 +40782,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q471" s="64" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="V471" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40778,13 +40823,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1772</v>
+        <v>1751</v>
       </c>
       <c r="H472" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1773</v>
+        <v>1752</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40802,13 +40847,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1774</v>
+        <v>1753</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40843,13 +40888,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1775</v>
+        <v>1754</v>
       </c>
       <c r="H473" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1776</v>
+        <v>1755</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -40867,13 +40912,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1777</v>
+        <v>1756</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -40908,13 +40953,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1778</v>
+        <v>1757</v>
       </c>
       <c r="H474" s="55" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1758</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1779</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40932,13 +40977,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1780</v>
+        <v>1759</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40973,13 +41018,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1781</v>
+        <v>1760</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40997,13 +41042,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1783</v>
+        <v>1762</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41055,7 +41100,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -41072,7 +41117,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41089,7 +41134,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41103,7 +41148,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41117,7 +41162,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41271,7 +41316,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41425,7 +41470,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41439,7 +41484,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41453,7 +41498,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41467,7 +41512,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41481,7 +41526,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41495,7 +41540,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41509,7 +41554,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41523,7 +41568,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41537,7 +41582,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41551,7 +41596,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41565,7 +41610,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41579,7 +41624,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41593,7 +41638,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41607,7 +41652,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41621,7 +41666,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41635,7 +41680,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41649,7 +41694,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41663,7 +41708,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41677,7 +41722,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41691,7 +41736,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41705,7 +41750,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41719,7 +41764,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -41733,7 +41778,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -41747,7 +41792,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -41761,7 +41806,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -41775,7 +41820,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -41789,7 +41834,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -41803,7 +41848,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -41817,7 +41862,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -41831,7 +41876,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -41845,7 +41890,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -41859,7 +41904,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -41873,7 +41918,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -41887,7 +41932,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -41901,7 +41946,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -41915,7 +41960,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -41929,7 +41974,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -41943,7 +41988,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -41957,7 +42002,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -41971,7 +42016,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -42147,16 +42192,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -42212,16 +42257,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -42277,10 +42322,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -42342,16 +42387,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -42407,10 +42452,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -42472,10 +42517,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -42534,16 +42579,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -42622,7 +42667,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42692,7 +42737,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42736,10 +42781,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -42765,7 +42810,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -42801,10 +42846,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -42866,10 +42911,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -42931,10 +42976,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -42967,7 +43012,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -43005,7 +43050,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -43021,7 +43066,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43068,17 +43113,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -43133,11 +43178,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -43198,11 +43243,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -43263,11 +43308,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -43328,7 +43373,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -43392,11 +43437,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -43470,7 +43515,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -43608,7 +43653,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -43624,7 +43669,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43644,7 +43689,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -43671,7 +43716,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -44325,7 +44370,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -44372,7 +44417,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -44419,7 +44464,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_11.24/shoping_config_xiaomi.xlsx
+++ b/config_11.24/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8004,6 +8004,90 @@
   </si>
   <si>
     <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8082,7 +8166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8161,6 +8245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8204,7 +8300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8404,6 +8500,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8870,7 +8984,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9095,9 +9209,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9177,9 +9289,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9259,9 +9369,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9341,9 +9449,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9423,9 +9529,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9505,9 +9609,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9587,9 +9689,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9668,9 +9768,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9751,9 +9848,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10755,9 +10850,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10856,13 +10949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A328" sqref="A328:XFD337"/>
+      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14641,283 +14734,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="69">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="69">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q67" s="69" t="s">
         <v>1467</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="69">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="69">
+        <v>0</v>
+      </c>
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="69">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="69" t="s">
         <v>1510</v>
       </c>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="69">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="69">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="Q69" s="69" t="s">
         <v>1468</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="V69" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="69">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="69">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="5" t="s">
+      <c r="Q70" s="69" t="s">
         <v>1469</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V70" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="69">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="69">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="Q71" s="69" t="s">
         <v>1470</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="V71" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
+      <c r="AG71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -16201,56 +16294,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="69">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="69">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18232,115 +18325,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="69">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="69">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="69">
+        <v>0</v>
+      </c>
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="69">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q128" s="5" t="s">
+      <c r="Q128" s="69" t="s">
         <v>1472</v>
       </c>
-      <c r="V128" s="5" t="s">
+      <c r="V128" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="69">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
         <v>1203</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129" s="69">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="69">
+        <v>0</v>
+      </c>
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="69">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q129" s="5" t="s">
+      <c r="Q129" s="69" t="s">
         <v>1471</v>
       </c>
-      <c r="V129" s="5" t="s">
+      <c r="V129" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
+      <c r="AG129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27573,59 +27666,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="69">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="69">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="72">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="69">
+        <v>0</v>
+      </c>
+      <c r="G273" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="69">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="69">
+        <v>0</v>
+      </c>
+      <c r="M273" s="69">
+        <v>0</v>
+      </c>
+      <c r="N273" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="69">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q273" s="5" t="s">
+      <c r="Q273" s="69" t="s">
         <v>1473</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="69">
         <v>1</v>
       </c>
     </row>
@@ -41069,6 +41162,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="67">
+        <v>475</v>
+      </c>
+      <c r="B476" s="67">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="67">
+        <v>1</v>
+      </c>
+      <c r="G476" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I476" s="67" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K476" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="67">
+        <v>0</v>
+      </c>
+      <c r="M476" s="67">
+        <v>0</v>
+      </c>
+      <c r="N476" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O476" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1798</v>
+      </c>
+      <c r="V476" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="W476" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="67">
+        <v>476</v>
+      </c>
+      <c r="B477" s="67">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="67">
+        <v>1</v>
+      </c>
+      <c r="G477" s="67" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I477" s="67" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K477" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="67">
+        <v>0</v>
+      </c>
+      <c r="M477" s="67">
+        <v>0</v>
+      </c>
+      <c r="N477" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O477" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q477" s="68" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V477" s="67" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W477" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="67">
+        <v>477</v>
+      </c>
+      <c r="B478" s="67">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="67">
+        <v>1</v>
+      </c>
+      <c r="G478" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H478" s="67" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K478" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="67">
+        <v>0</v>
+      </c>
+      <c r="M478" s="67">
+        <v>0</v>
+      </c>
+      <c r="N478" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O478" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="67" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Q478" s="68" t="s">
+        <v>1809</v>
+      </c>
+      <c r="V478" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="W478" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="67">
+        <v>478</v>
+      </c>
+      <c r="B479" s="67">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="67">
+        <v>1</v>
+      </c>
+      <c r="G479" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H479" s="67" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I479" s="67" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K479" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="67">
+        <v>0</v>
+      </c>
+      <c r="M479" s="67">
+        <v>0</v>
+      </c>
+      <c r="N479" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O479" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="67" t="s">
+        <v>1812</v>
+      </c>
+      <c r="Q479" s="68" t="s">
+        <v>1813</v>
+      </c>
+      <c r="V479" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="W479" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="67">
         <v>1</v>
       </c>
     </row>
